--- a/Services/TenantManagement/SeedData/student_upload.xlsx
+++ b/Services/TenantManagement/SeedData/student_upload.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Danh sách sinh viên</t>
   </si>
@@ -60,24 +60,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Trần Văn A</t>
-  </si>
-  <si>
-    <t>KH001</t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>K64CCLC</t>
-  </si>
-  <si>
-    <t>19020060@vnu.edu.vn</t>
-  </si>
-  <si>
-    <t>0348200145</t>
   </si>
 </sst>
 </file>
@@ -739,9 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1259,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1342,37 +1321,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>19020001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="9:9">
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="5"/>
@@ -1693,9 +1643,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="19020060@vnu.edu.vn" tooltip="mailto:19020060@vnu.edu.vn"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Services/TenantManagement/SeedData/student_upload.xlsx
+++ b/Services/TenantManagement/SeedData/student_upload.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Danh sách sinh viên</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Mã khoa</t>
-  </si>
-  <si>
-    <t>Khoa</t>
   </si>
   <si>
     <t>Chuyên ngành</t>
@@ -1256,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1268,14 +1265,13 @@
     <col min="2" max="2" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="26.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="24.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="17.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="24.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,9 +1283,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1308,340 +1303,337 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="9:9">
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="9:9">
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="9:9">
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="9:9">
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="9:9">
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="9:9">
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="9:9">
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="9:9">
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="9:9">
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="9:9">
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="9:9">
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="9:9">
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="9:9">
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="9:9">
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="9:9">
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="9:9">
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="9:9">
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="9:9">
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="9:9">
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="9:9">
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="9:9">
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="9:9">
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="9:9">
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="9:9">
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="9:9">
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="9:9">
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="9:9">
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="9:9">
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="9:9">
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="9:9">
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="9:9">
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="9:9">
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="5"/>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="8:8">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Services/TenantManagement/SeedData/student_upload.xlsx
+++ b/Services/TenantManagement/SeedData/student_upload.xlsx
@@ -1256,14 +1256,14 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="9.14285714285714" style="1"/>
